--- a/biology/Médecine/Félix_Legueu/Félix_Legueu.xlsx
+++ b/biology/Médecine/Félix_Legueu/Félix_Legueu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Legueu</t>
+          <t>Félix_Legueu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Legueu[1], né Marie Louis Félix Gabriel Legueu le 12 août 1863 à Angers[2] et mort le 2 octobre 1939 à Poissy, est un chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Legueu, né Marie Louis Félix Gabriel Legueu le 12 août 1863 à Angers et mort le 2 octobre 1939 à Poissy, est un chirurgien français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Legueu</t>
+          <t>Félix_Legueu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Urologue et gynécologue, il a été professeur à Paris, membre de l'Académie de médecine, chirurgien à l'hôpital Necker et à l'hospice de Bicêtre.
-Legueu est connu pour ses études sur les troubles génito-urinaires. En 1913 il décrivit un traitement chirurgical de la fistule vésicovaginale, un passage anormal entre le vagin et la vessie, connu maintenant sous le nom d'opération de « Dittel-Forgue-Legueu[3] ».
+Legueu est connu pour ses études sur les troubles génito-urinaires. En 1913 il décrivit un traitement chirurgical de la fistule vésicovaginale, un passage anormal entre le vagin et la vessie, connu maintenant sous le nom d'opération de « Dittel-Forgue-Legueu ».
 Quelques instruments chirurgicaux modernes portent le nom de Legueu, tels le doigtier de Legueu, le rétracteur de vessie de Legueu et la spatule de vessie.
-Félix Legueu est mort à Poissy, intoxiqué par le monoxyde de carbone durant son sommeil, sa cheminée étant obstruée par des branches. Il est enterré dans la chapelle Bonnet[4] (allées A33/A 34) au cimetière de la Tournelle à Poissy[5].
+Félix Legueu est mort à Poissy, intoxiqué par le monoxyde de carbone durant son sommeil, sa cheminée étant obstruée par des branches. Il est enterré dans la chapelle Bonnet (allées A33/A 34) au cimetière de la Tournelle à Poissy.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Legueu</t>
+          <t>Félix_Legueu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Félix Legueu est nommé Chevalier de la Légion d'Honneur en 1911, puis Officier en 1921[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Félix Legueu est nommé Chevalier de la Légion d'Honneur en 1911, puis Officier en 1921.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Legueu</t>
+          <t>Félix_Legueu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,20 +593,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Listes de publications
-Legueu a établi plusieurs fois une liste de ses travaux. Les listes les plus récentes sont :
+          <t>Listes de publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Legueu a établi plusieurs fois une liste de ses travaux. Les listes les plus récentes sont :
 Titres et travaux scientifiques de Félix Legueu, Paris, F. Alcan, 1912 (OCLC 493981300)
 Supplément aux titres scientifiques depuis 1920, 1924, 7 p., dactylographié (OCLC 493858235)
-Liste contemporaine, mais incomplète, de SUDOC ; Legueu y apparaît 35 fois à titre d'auteur[7].
-Publications choisies
-Des calculs du rein et de l'uretère au point de vue chirurgical, Steinheil, 1891, 150 p. disponible sur Google Books, lire en ligne sur Gallica
+Liste contemporaine, mais incomplète, de SUDOC ; Legueu y apparaît 35 fois à titre d'auteur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Félix_Legueu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9lix_Legueu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications choisies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des calculs du rein et de l'uretère au point de vue chirurgical, Steinheil, 1891, 150 p. disponible sur Google Books, lire en ligne sur Gallica
 Chirurgie du rein et de l'uretère, 1894, 264 p. 
 De l'appendicite : pathogénie, clinique, traitement, Paris, Masson et Cie, coll. « L’œuvre médico-chirurgicale » (no 1), mai 1897, 40 + 8, in-8, lire en ligne sur Gallica
-(Avec Frédéric Labadie-Lagrave[8]) Traité médico-chirurgical de gynécologie, 1898, lire en ligne sur Gallica 4e éd., Félix Alcan, 1914, 1333 p. 
+(Avec Frédéric Labadie-Lagrave) Traité médico-chirurgical de gynécologie, 1898, lire en ligne sur Gallica 4e éd., Félix Alcan, 1914, 1333 p. 
 Traitement de l'appendicite, Paris, Masson et Cie, coll. « L’œuvre médico-chirurgical » (no 18), 5 juillet 1899, 32 p., in-8, lire en ligne sur Gallica
 Des hématuries essentielles : Rapport présenté à la 4e session de l'Association française d'urologie, Paris, Daix frères, 1899, 70 p., in-8°,  lire en ligne sur Gallica
 Leçons de clinique chirurgicale, Paris, Félix Alcan, 1902, 454 p. 
-De la pyélonéphrite dans ses rapports avec la puerpéralité : IVe Congrès périodique de gynécologie, d'obstétrique et de paediatrie, Rouen, Lecerf fils, 1904, 32 p.[9], lire en ligne sur Gallica
+De la pyélonéphrite dans ses rapports avec la puerpéralité : IVe Congrès périodique de gynécologie, d'obstétrique et de paediatrie, Rouen, Lecerf fils, 1904, 32 p., lire en ligne sur Gallica
 Traitement chirurgical de l'hypertrophie prostatique : Rapport présenté au XVe Congrès international de Lisbonne, Paris, G. Steinheil, avril 1906, 62 p., in-8°, lire en ligne sur Gallica
 « Le rein mobile », dans Les actualités médicales, Baillière, 1906, 96 p. 
 Traitement du cancer de l'appareil urinaire et des organes génitaux de l'homme, résultats éloignés, Bruxelles, de Hayez, 1908, 22 p., in-8°, lire en ligne sur Gallica
